--- a/EventStorming/Event Storming Proyecto.xlsx
+++ b/EventStorming/Event Storming Proyecto.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\archivos\Downloads\DOO-working-group\EventStorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C7A697-F289-4799-93FE-95CF557FCA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84066B3D-C770-4C60-9626-04ADF9DE3993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" firstSheet="1" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos anémico" sheetId="61" r:id="rId1"/>
     <sheet name="Listado Objetos de Dominio" sheetId="67" r:id="rId2"/>
-    <sheet name="Proyecto" sheetId="66" r:id="rId3"/>
-    <sheet name="ListaTareas" sheetId="24" r:id="rId4"/>
-    <sheet name="Tarea" sheetId="68" r:id="rId5"/>
-    <sheet name="Estado" sheetId="69" r:id="rId6"/>
+    <sheet name="Participante" sheetId="70" r:id="rId3"/>
+    <sheet name="Proyecto" sheetId="66" r:id="rId4"/>
+    <sheet name="ListaTareas" sheetId="24" r:id="rId5"/>
+    <sheet name="Tarea" sheetId="68" r:id="rId6"/>
+    <sheet name="Estado" sheetId="69" r:id="rId7"/>
+    <sheet name="MetricaProyecto" sheetId="72" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listado Objetos de Dominio'!$A$1:$B$4</definedName>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="164">
   <si>
     <t>Descripción</t>
   </si>
@@ -500,6 +502,42 @@
   </si>
   <si>
     <t>Permite consultar el estado de actividad existente de una tarea o de una lista de tareas</t>
+  </si>
+  <si>
+    <t>Equipo</t>
+  </si>
+  <si>
+    <t>Es el contexto encargado de conectar los usuarios de un equipo con un proyecto</t>
+  </si>
+  <si>
+    <t>Un proyecto solo solicita la informacion de un participante que este vinculado al equipo del proyecto</t>
+  </si>
+  <si>
+    <t>Recibir informacion de integrante</t>
+  </si>
+  <si>
+    <t>Un proyecto solo recibe la informacion de un participante cuando este requiere interactuar con un proyecto</t>
+  </si>
+  <si>
+    <t>Permite recibir la información de un participante del equipo el cual desea interactuar con el proyecto</t>
+  </si>
+  <si>
+    <t>Información participante recibida</t>
+  </si>
+  <si>
+    <t>Enviar metricas de proyecto</t>
+  </si>
+  <si>
+    <t>Permite enviar metricas de proyectos para realizar un analisis estadistico</t>
+  </si>
+  <si>
+    <t>Es el contexto encargado de realizar un analisis estadistico en base a unas metricas</t>
+  </si>
+  <si>
+    <t>Unas metricas solo son enviadas por un proyecto solicitado por un usuario del equipo</t>
+  </si>
+  <si>
+    <t>Metricas enviadas</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1038,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1130,52 +1168,106 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1225,84 +1317,48 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1312,22 +1368,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1336,50 +1392,29 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1815,9 +1850,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,12 +1965,12 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A8" location="ObjetoDominio_MetricaProyecto!A1" display="MetricaProyecto" xr:uid="{3A14D2B0-0E74-471F-AAB9-3DC6657AB15C}"/>
-    <hyperlink ref="A2" location="ObjetoDominio_ListaTarea!A1" display="ListaTarea" xr:uid="{6DA28B72-9F4B-47A5-AB0D-BF1D59EC4ADB}"/>
-    <hyperlink ref="A3" location="ObjetoDominio_Participante!A1" display="Participante" xr:uid="{5CD104CE-D08C-4852-A5CB-855003036783}"/>
-    <hyperlink ref="A4" location="'ObjetoDominio Tarea'!A1" display="Tarea" xr:uid="{838F7676-94D9-4A20-B633-3026FFE2BA3E}"/>
-    <hyperlink ref="A5" location="'ObjetoDominio Estado'!A1" display="Estado" xr:uid="{3370221B-5CEA-4CB4-B4E7-691801BE1D99}"/>
-    <hyperlink ref="A6" location="Proyectos!A1" display="Proyecto" xr:uid="{0C1D4A20-E5C6-483E-9997-85A9B3D1EDAD}"/>
-    <hyperlink ref="A7" location="ObjetoDominio_MetricaProyecto!A1" display="MetricaProyecto" xr:uid="{3A14D2B0-0E74-471F-AAB9-3DC6657AB15C}"/>
+    <hyperlink ref="A2" location="ListaTareas!A1" display="ListaTareas" xr:uid="{6DA28B72-9F4B-47A5-AB0D-BF1D59EC4ADB}"/>
+    <hyperlink ref="A3" location="Participante!A1" display="Participante" xr:uid="{5CD104CE-D08C-4852-A5CB-855003036783}"/>
+    <hyperlink ref="A4" location="Tarea!A1" display="Tarea" xr:uid="{838F7676-94D9-4A20-B633-3026FFE2BA3E}"/>
+    <hyperlink ref="A5" location="Estado!A1" display="Estado" xr:uid="{3370221B-5CEA-4CB4-B4E7-691801BE1D99}"/>
+    <hyperlink ref="A6" location="Proyecto!A1" display="Proyecto" xr:uid="{0C1D4A20-E5C6-483E-9997-85A9B3D1EDAD}"/>
+    <hyperlink ref="A7" location="MetricaProyecto!A1" display="MetricaProyecto" xr:uid="{3A14D2B0-0E74-471F-AAB9-3DC6657AB15C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1943,11 +1978,311 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E34726D-D97C-4DAF-A554-9FD8B7E9C54E}">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38" style="1" customWidth="1"/>
+    <col min="12" max="12" width="46.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="89" t="str">
+        <f>'Listado Objetos de Dominio'!$A$3</f>
+        <v>Participante</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="91" t="str">
+        <f>'Listado Objetos de Dominio'!$B$3</f>
+        <v xml:space="preserve">Este objeto de dominio me da la informacion de la persona que esta vinculada al proyecto </v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="80"/>
+      <c r="D4" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="93"/>
+      <c r="F4" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="84"/>
+      <c r="H4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="93"/>
+      <c r="F5" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="82"/>
+      <c r="H5" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="117"/>
+      <c r="L5" s="118"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="85"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="118"/>
+    </row>
+    <row r="7" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="122" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="12">
+        <v>2</v>
+      </c>
+      <c r="G8" s="122" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+    </row>
+    <row r="9" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="8:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="8:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H33"/>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H34"/>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H35"/>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H36"/>
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="J38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{9EFE6919-B53C-471B-8609-4357852BC5C2}"/>
+    <hyperlink ref="A1:M1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{3C527C77-C465-45CB-8385-5573A08480A6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,78 +2309,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="71" t="str">
+      <c r="B2" s="89" t="str">
         <f>'Listado Objetos de Dominio'!$A$6</f>
         <v>Proyecto</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="72"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="73" t="str">
+      <c r="B3" s="91" t="str">
         <f>'Listado Objetos de Dominio'!$B$6</f>
         <v>Este objeto de dominio es la razon principal de la aplicaicion y me describe un esfuerzo general para lograr un resultado</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="92"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="75" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="66" t="s">
+      <c r="E4" s="93"/>
+      <c r="F4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="66"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
@@ -2055,48 +2390,48 @@
       <c r="J4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="70" t="s">
+      <c r="L4" s="88" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="64" t="s">
+      <c r="E5" s="93"/>
+      <c r="F5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="67" t="s">
+      <c r="G5" s="82"/>
+      <c r="H5" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="68" t="s">
+      <c r="I5" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="69"/>
-      <c r="L5" s="70"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="88"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
@@ -2109,26 +2444,26 @@
       <c r="G6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="70"/>
-    </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79" t="s">
+      <c r="H6" s="85"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="88"/>
+    </row>
+    <row r="7" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="66" t="s">
         <v>68</v>
       </c>
       <c r="F7" s="24">
@@ -2137,646 +2472,776 @@
       <c r="G7" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76" t="s">
+      <c r="H7" s="66"/>
+      <c r="I7" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76" t="s">
+      <c r="J7" s="66"/>
+      <c r="K7" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="44"/>
+      <c r="L7" s="44" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="80"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="24">
         <v>2</v>
       </c>
       <c r="G8" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="44"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="44" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
       <c r="F9" s="24">
         <v>3</v>
       </c>
       <c r="G9" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77" t="s">
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="44"/>
-    </row>
-    <row r="10" spans="1:13" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="81"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="27">
+      <c r="L9" s="44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="65"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="75"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="27">
         <v>4</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G11" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="45"/>
-    </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="86" t="s">
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B12" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C12" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="29">
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="29">
         <v>5</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G12" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88" t="s">
+      <c r="H12" s="60"/>
+      <c r="I12" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="88"/>
-      <c r="K11" s="33" t="s">
+      <c r="J12" s="60"/>
+      <c r="K12" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="47"/>
-    </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="80"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="91">
+      <c r="L12" s="50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="65"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="68">
         <v>6</v>
       </c>
-      <c r="G12" s="77" t="s">
+      <c r="G13" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="33" t="s">
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="48"/>
-    </row>
-    <row r="13" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="80"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="33" t="s">
+      <c r="L13" s="44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="65"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="L13" s="48"/>
-    </row>
-    <row r="14" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="80"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="91">
+      <c r="L14" s="44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="65"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="68">
         <v>7</v>
       </c>
-      <c r="G14" s="76" t="s">
+      <c r="G15" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="33" t="s">
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="L14" s="48"/>
-    </row>
-    <row r="15" spans="1:13" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="80"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="34" t="s">
+      <c r="L15" s="44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="65"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="L15" s="48"/>
-    </row>
-    <row r="16" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="86" t="s">
+      <c r="L16" s="49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="87" t="s">
+      <c r="B17" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="87" t="s">
+      <c r="C17" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89">
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="73">
         <v>4</v>
       </c>
-      <c r="G16" s="88" t="s">
+      <c r="G17" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88" t="s">
+      <c r="H17" s="60"/>
+      <c r="I17" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="88"/>
-      <c r="K16" s="36" t="s">
+      <c r="J17" s="60"/>
+      <c r="K17" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="49"/>
-    </row>
-    <row r="17" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="80"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="33" t="s">
+      <c r="L17" s="48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="65"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="L17" s="50"/>
-    </row>
-    <row r="18" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="80"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="25">
+      <c r="L18" s="123" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="65"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="25">
         <v>5</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G19" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="33" t="s">
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="50"/>
-    </row>
-    <row r="19" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="80"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="24">
+      <c r="L19" s="123" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="65"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="24">
         <v>6</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G20" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="33" t="s">
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="L19" s="50"/>
-    </row>
-    <row r="20" spans="1:14" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="80"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="25">
+      <c r="L20" s="123" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="65"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="25">
         <v>7</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G21" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="33" t="s">
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="L20" s="44"/>
-      <c r="N20"/>
-    </row>
-    <row r="21" spans="1:14" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="86" t="s">
+      <c r="L21" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:14" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="87" t="s">
+      <c r="B22" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C22" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="89">
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="73">
         <v>6</v>
       </c>
-      <c r="G21" s="88" t="s">
+      <c r="G22" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88" t="s">
+      <c r="H22" s="60"/>
+      <c r="I22" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="J21" s="88"/>
-      <c r="K21" s="38" t="s">
+      <c r="J22" s="60"/>
+      <c r="K22" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="L21" s="47"/>
-      <c r="N21"/>
-    </row>
-    <row r="22" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="80"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="37" t="s">
+      <c r="L22" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="65"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="L22" s="51"/>
-      <c r="N22"/>
-    </row>
-    <row r="23" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="80"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="91">
+      <c r="L23" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="65"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="68">
         <v>7</v>
       </c>
-      <c r="G23" s="91" t="s">
+      <c r="G24" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="33" t="s">
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="51"/>
-      <c r="N23"/>
-    </row>
-    <row r="24" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="80"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="33" t="s">
+      <c r="L24" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="65"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="L24" s="51"/>
-      <c r="N24"/>
-    </row>
-    <row r="25" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="80"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="91">
+      <c r="L25" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="65"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="68">
         <v>8</v>
       </c>
-      <c r="G25" s="91" t="s">
+      <c r="G26" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="33" t="s">
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="L25" s="51"/>
-      <c r="N25"/>
-    </row>
-    <row r="26" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="80"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="33" t="s">
+      <c r="L26" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="65"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="L26" s="51"/>
-      <c r="N26"/>
-    </row>
-    <row r="27" spans="1:14" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="81"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="34" t="s">
+      <c r="L27" s="125"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="1:14" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="75"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="L27" s="45"/>
-      <c r="N27"/>
-    </row>
-    <row r="28" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+      <c r="L28" s="126"/>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="87" t="s">
+      <c r="B29" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="87" t="s">
+      <c r="C29" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88" t="s">
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="47"/>
-      <c r="N28"/>
-    </row>
-    <row r="29" spans="1:14" s="26" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="52" t="s">
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="N29"/>
+    </row>
+    <row r="30" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="106"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="45"/>
-      <c r="N29"/>
-    </row>
-    <row r="30" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="86" t="s">
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="104"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="N32"/>
+    </row>
+    <row r="33" spans="1:14" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="105"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="87" t="s">
+      <c r="B34" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="87" t="s">
+      <c r="C34" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="88" t="s">
+      <c r="D34" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="88" t="s">
+      <c r="E34" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="89">
+      <c r="F34" s="73">
         <v>10</v>
       </c>
-      <c r="G30" s="88" t="s">
+      <c r="G34" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88" t="s">
+      <c r="H34" s="60"/>
+      <c r="I34" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="J30" s="88"/>
-      <c r="K30" s="38" t="s">
+      <c r="J34" s="60"/>
+      <c r="K34" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="L30" s="47"/>
-      <c r="N30"/>
-    </row>
-    <row r="31" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="80"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="37" t="s">
+      <c r="L34" s="124" t="s">
+        <v>62</v>
+      </c>
+      <c r="N34"/>
+    </row>
+    <row r="35" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="65"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="L31" s="51"/>
-      <c r="N31"/>
-    </row>
-    <row r="32" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="80"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="37" t="s">
+      <c r="L35" s="125"/>
+      <c r="N35"/>
+    </row>
+    <row r="36" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="65"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="L32" s="51"/>
-      <c r="N32"/>
-    </row>
-    <row r="33" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="80"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="91">
+      <c r="L36" s="125"/>
+      <c r="N36"/>
+    </row>
+    <row r="37" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="65"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="68">
         <v>11</v>
       </c>
-      <c r="G33" s="76" t="s">
+      <c r="G37" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="37" t="s">
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="51"/>
-      <c r="N33"/>
-    </row>
-    <row r="34" spans="1:14" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="81"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="34" t="s">
+      <c r="L37" s="125"/>
+      <c r="N37"/>
+    </row>
+    <row r="38" spans="1:14" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="75"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="L34" s="45"/>
-      <c r="N34"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N35"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N36"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N37"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L38" s="126"/>
       <c r="N38"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N39"/>
     </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N40"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N41"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N42"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N43"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="119" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C48" s="121"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="121"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="121"/>
+    </row>
+    <row r="51" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="121"/>
+    </row>
+    <row r="52" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="119" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="121"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="121"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="121"/>
+    </row>
+    <row r="56" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="121"/>
+    </row>
+    <row r="57" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="119" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="121"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="121"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="121"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="121"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="121"/>
+    </row>
+    <row r="63" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="120"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="119" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="120"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="119" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="121"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="121"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="121"/>
+    </row>
+    <row r="70" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="120"/>
+    </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="J16:J20"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="J11:J15"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="H11:H15"/>
-    <mergeCell ref="I16:I20"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="I21:I27"/>
-    <mergeCell ref="J21:J27"/>
-    <mergeCell ref="H21:H27"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="H7:H10"/>
+  <mergeCells count="88">
+    <mergeCell ref="L34:L38"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A33"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -2793,6 +3258,74 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="D22:D28"/>
+    <mergeCell ref="E22:E28"/>
+    <mergeCell ref="I22:I28"/>
+    <mergeCell ref="J22:J28"/>
+    <mergeCell ref="H22:H28"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="J29:J33"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A12:A16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -2803,7 +3336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
   <dimension ref="A1:M66"/>
   <sheetViews>
@@ -2836,78 +3369,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="71" t="str">
+      <c r="B2" s="89" t="str">
         <f>'Listado Objetos de Dominio'!$A$2</f>
         <v>ListaTareas</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="72"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="73" t="str">
+      <c r="B3" s="91" t="str">
         <f>'Listado Objetos de Dominio'!$B$2</f>
         <v xml:space="preserve">Este objeto de dominio contiene  informacion de las listas de trabajo que tienen los proyectos </v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="92"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="75" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="66" t="s">
+      <c r="E4" s="93"/>
+      <c r="F4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="66"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
@@ -2917,48 +3450,48 @@
       <c r="J4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="109" t="s">
+      <c r="K4" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="70" t="s">
+      <c r="L4" s="88" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="64" t="s">
+      <c r="E5" s="93"/>
+      <c r="F5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="67" t="s">
+      <c r="G5" s="82"/>
+      <c r="H5" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="110" t="s">
+      <c r="I5" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="109"/>
-      <c r="L5" s="70"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="88"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
@@ -2971,240 +3504,240 @@
       <c r="G6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="70"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="88"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
       <c r="F7" s="24">
         <v>1</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91" t="s">
+      <c r="H7" s="68"/>
+      <c r="I7" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91" t="s">
+      <c r="J7" s="68"/>
+      <c r="K7" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="53" t="s">
+      <c r="L7" s="44" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="24">
         <v>2</v>
       </c>
       <c r="G8" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="53" t="s">
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="44" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
       <c r="F9" s="24">
         <v>3</v>
       </c>
       <c r="G9" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="53" t="s">
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="44" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="91">
+      <c r="A10" s="104"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="68">
         <v>4</v>
       </c>
-      <c r="G10" s="105" t="s">
+      <c r="G10" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="91" t="s">
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="54" t="s">
+      <c r="L10" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="M10" s="55"/>
+      <c r="M10" s="46"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
       <c r="L11" s="31" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="98"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="58" t="s">
+      <c r="A12" s="105"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="49" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
       <c r="F13" s="29">
         <v>4</v>
       </c>
       <c r="G13" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89" t="s">
+      <c r="H13" s="73"/>
+      <c r="I13" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="89"/>
+      <c r="J13" s="73"/>
       <c r="K13" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="59" t="s">
+      <c r="L13" s="50" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
       <c r="F14" s="25">
         <v>5</v>
       </c>
       <c r="G14" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
       <c r="K14" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="54" t="s">
+      <c r="L14" s="45" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="91">
+      <c r="A15" s="104"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="68">
         <v>6</v>
       </c>
-      <c r="G15" s="91" t="s">
+      <c r="G15" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
       <c r="K15" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="L15" s="54" t="s">
+      <c r="L15" s="45" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="95"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
       <c r="K16" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="L16" s="54" t="s">
+      <c r="L16" s="45" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="95"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
+      <c r="A17" s="104"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
       <c r="K17" s="28" t="s">
         <v>100</v>
       </c>
@@ -3213,130 +3746,130 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="98"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
+      <c r="A18" s="105"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
       <c r="K18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L18" s="58" t="s">
+      <c r="L18" s="49" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="87" t="s">
+      <c r="C19" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
       <c r="F19" s="29">
         <v>4</v>
       </c>
       <c r="G19" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="89"/>
-      <c r="I19" s="87" t="s">
+      <c r="H19" s="73"/>
+      <c r="I19" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="J19" s="88"/>
+      <c r="J19" s="60"/>
       <c r="K19" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="L19" s="59" t="s">
+      <c r="L19" s="50" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="97"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
       <c r="F20" s="25">
         <v>5</v>
       </c>
       <c r="G20" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="H20" s="92"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="76"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="66"/>
       <c r="K20" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="L20" s="54" t="s">
+      <c r="L20" s="45" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
       <c r="F21" s="25">
         <v>6</v>
       </c>
       <c r="G21" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="92"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="76"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="66"/>
       <c r="K21" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="L21" s="54" t="s">
+      <c r="L21" s="45" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="97"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="91">
+      <c r="A22" s="99"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="68">
         <v>7</v>
       </c>
-      <c r="G22" s="91" t="s">
+      <c r="G22" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="92"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="76"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="66"/>
       <c r="K22" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="L22" s="54" t="s">
+      <c r="L22" s="45" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="97"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="76"/>
+      <c r="A23" s="99"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="66"/>
       <c r="K23" s="28" t="s">
         <v>100</v>
       </c>
@@ -3345,37 +3878,37 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="108"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="107"/>
+      <c r="A24" s="100"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="97"/>
       <c r="K24" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="L24" s="58" t="s">
+      <c r="L24" s="49" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="99" t="s">
+      <c r="C25" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="89" t="s">
+      <c r="D25" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="99" t="s">
+      <c r="E25" s="107" t="s">
         <v>87</v>
       </c>
       <c r="F25" s="29">
@@ -3384,352 +3917,352 @@
       <c r="G25" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89" t="s">
+      <c r="H25" s="73"/>
+      <c r="I25" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="J25" s="89"/>
+      <c r="J25" s="73"/>
       <c r="K25" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="L25" s="59" t="s">
+      <c r="L25" s="50" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="95"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="100"/>
+      <c r="A26" s="104"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="102"/>
       <c r="F26" s="25">
         <v>5</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
       <c r="K26" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="L26" s="54" t="s">
+      <c r="L26" s="45" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="96"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="91">
+      <c r="A27" s="106"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="68">
         <v>6</v>
       </c>
-      <c r="G27" s="91" t="s">
+      <c r="G27" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
       <c r="K27" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="L27" s="54" t="s">
+      <c r="L27" s="45" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="97" t="s">
+      <c r="A28" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
       <c r="K28" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="L28" s="54" t="s">
+      <c r="L28" s="45" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="95"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
+      <c r="A29" s="104"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
       <c r="K29" s="28" t="s">
         <v>100</v>
       </c>
       <c r="L29" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="M29" s="55"/>
+      <c r="M29" s="46"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="98"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
+      <c r="A30" s="105"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
       <c r="K30" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="L30" s="58" t="s">
+      <c r="L30" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="M30" s="55"/>
+      <c r="M30" s="46"/>
     </row>
     <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="94" t="s">
+      <c r="A31" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="99" t="s">
+      <c r="B31" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="99" t="s">
+      <c r="C31" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
       <c r="F31" s="29">
         <v>4</v>
       </c>
       <c r="G31" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89" t="s">
+      <c r="H31" s="73"/>
+      <c r="I31" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="J31" s="89"/>
+      <c r="J31" s="73"/>
       <c r="K31" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="L31" s="102" t="s">
+      <c r="L31" s="108" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="95"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="91">
+      <c r="A32" s="104"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="68">
         <v>6</v>
       </c>
-      <c r="G32" s="91" t="s">
+      <c r="G32" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
       <c r="K32" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="L32" s="103"/>
+      <c r="L32" s="109"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="95"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
+      <c r="A33" s="104"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
       <c r="K33" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="L33" s="103"/>
+      <c r="L33" s="109"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="95"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
+      <c r="A34" s="104"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
       <c r="K34" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="L34" s="103"/>
+      <c r="L34" s="109"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="95"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
+      <c r="A35" s="104"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
       <c r="K35" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="L35" s="103"/>
+      <c r="L35" s="109"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="98"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
+      <c r="A36" s="105"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
       <c r="K36" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="L36" s="104"/>
+      <c r="L36" s="110"/>
     </row>
     <row r="37" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="99" t="s">
+      <c r="B37" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="99" t="s">
+      <c r="C37" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="89" t="s">
+      <c r="D37" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="99" t="s">
+      <c r="E37" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="F37" s="89">
+      <c r="F37" s="73">
         <v>8</v>
       </c>
-      <c r="G37" s="99" t="s">
+      <c r="G37" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89" t="s">
+      <c r="H37" s="73"/>
+      <c r="I37" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="J37" s="89"/>
+      <c r="J37" s="73"/>
       <c r="K37" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="L37" s="57" t="s">
+      <c r="L37" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="M37" s="55"/>
+      <c r="M37" s="46"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="95"/>
-      <c r="B38" s="100"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="92"/>
+      <c r="A38" s="104"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
       <c r="K38" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="L38" s="53" t="s">
+      <c r="L38" s="44" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="95"/>
-      <c r="B39" s="100"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
+      <c r="A39" s="104"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
       <c r="K39" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="L39" s="53" t="s">
+      <c r="L39" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="95"/>
-      <c r="B40" s="100"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
+      <c r="A40" s="104"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
       <c r="K40" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="L40" s="53" t="s">
+      <c r="L40" s="44" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="95"/>
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="92"/>
+      <c r="A41" s="104"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
       <c r="K41" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="L41" s="54" t="s">
+      <c r="L41" s="45" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="98"/>
-      <c r="B42" s="101"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
+      <c r="A42" s="105"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
       <c r="K42" s="14" t="s">
         <v>105</v>
       </c>
@@ -3738,116 +4271,116 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="94" t="s">
+      <c r="A43" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="89" t="s">
+      <c r="B43" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="99" t="s">
+      <c r="C43" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89" t="s">
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="J43" s="89"/>
+      <c r="J43" s="73"/>
       <c r="K43" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="L43" s="56" t="s">
+      <c r="L43" s="47" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="95"/>
-      <c r="B44" s="92"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="92"/>
+      <c r="A44" s="104"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
       <c r="K44" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="L44" s="54" t="s">
+      <c r="L44" s="45" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="95"/>
-      <c r="B45" s="92"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="92"/>
+      <c r="A45" s="104"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
       <c r="K45" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="L45" s="54" t="s">
+      <c r="L45" s="45" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="96"/>
-      <c r="B46" s="92"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="92"/>
+      <c r="A46" s="106"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="70"/>
       <c r="K46" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="L46" s="54" t="s">
+      <c r="L46" s="45" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="97" t="s">
+      <c r="A47" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="92"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="92"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
       <c r="K47" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="L47" s="54" t="s">
+      <c r="L47" s="45" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="95"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="92"/>
+      <c r="A48" s="104"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
       <c r="K48" s="28" t="s">
         <v>83</v>
       </c>
@@ -3856,16 +4389,16 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="98"/>
-      <c r="B49" s="90"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="90"/>
-      <c r="J49" s="90"/>
+      <c r="A49" s="105"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
       <c r="K49" s="14" t="s">
         <v>82</v>
       </c>
@@ -3948,6 +4481,81 @@
     </row>
   </sheetData>
   <mergeCells count="91">
+    <mergeCell ref="J43:J49"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="G43:G49"/>
+    <mergeCell ref="H43:H49"/>
+    <mergeCell ref="I43:I49"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B43:B49"/>
+    <mergeCell ref="C43:C49"/>
+    <mergeCell ref="D43:D49"/>
+    <mergeCell ref="L31:L36"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="E37:E42"/>
+    <mergeCell ref="F37:F42"/>
+    <mergeCell ref="G37:G42"/>
+    <mergeCell ref="H37:H42"/>
+    <mergeCell ref="I37:I42"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="G32:G36"/>
+    <mergeCell ref="H31:H36"/>
+    <mergeCell ref="I31:I36"/>
+    <mergeCell ref="J31:J36"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="H13:H18"/>
+    <mergeCell ref="I13:I18"/>
+    <mergeCell ref="J13:J18"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="E13:E18"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H25:H30"/>
+    <mergeCell ref="I25:I30"/>
+    <mergeCell ref="J25:J30"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="I19:I24"/>
+    <mergeCell ref="J19:J24"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H19:H24"/>
+    <mergeCell ref="H7:H12"/>
+    <mergeCell ref="I7:I12"/>
+    <mergeCell ref="J7:J12"/>
+    <mergeCell ref="F10:F12"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -3964,81 +4572,6 @@
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="I19:I24"/>
-    <mergeCell ref="J19:J24"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H19:H24"/>
-    <mergeCell ref="H7:H12"/>
-    <mergeCell ref="I7:I12"/>
-    <mergeCell ref="J7:J12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="E7:E12"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="H13:H18"/>
-    <mergeCell ref="I13:I18"/>
-    <mergeCell ref="J13:J18"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="E13:E18"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="H25:H30"/>
-    <mergeCell ref="I25:I30"/>
-    <mergeCell ref="J25:J30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="E25:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="L31:L36"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="D37:D42"/>
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="F37:F42"/>
-    <mergeCell ref="G37:G42"/>
-    <mergeCell ref="H37:H42"/>
-    <mergeCell ref="I37:I42"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="G32:G36"/>
-    <mergeCell ref="H31:H36"/>
-    <mergeCell ref="I31:I36"/>
-    <mergeCell ref="J31:J36"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B43:B49"/>
-    <mergeCell ref="C43:C49"/>
-    <mergeCell ref="D43:D49"/>
-    <mergeCell ref="J43:J49"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="F43:F49"/>
-    <mergeCell ref="G43:G49"/>
-    <mergeCell ref="H43:H49"/>
-    <mergeCell ref="I43:I49"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{79C12EC1-52AC-413E-AC64-706EBBEE7DDD}"/>
@@ -4048,7 +4581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
   <dimension ref="A1:M74"/>
   <sheetViews>
@@ -4079,78 +4612,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="71" t="str">
+      <c r="B2" s="89" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Tarea</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="72"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="73" t="str">
+      <c r="B3" s="91" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Este objeto de dominio contiene la información de una tarea que esta dentro de una listaTarea</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="92"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="75" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="66" t="s">
+      <c r="E4" s="93"/>
+      <c r="F4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="66"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
@@ -4160,48 +4693,48 @@
       <c r="J4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="111" t="s">
+      <c r="K4" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="112" t="s">
+      <c r="L4" s="118" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="64" t="s">
+      <c r="E5" s="93"/>
+      <c r="F5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="67" t="s">
+      <c r="G5" s="82"/>
+      <c r="H5" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="110" t="s">
+      <c r="I5" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="111"/>
-      <c r="L5" s="112"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="118"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
@@ -4214,35 +4747,35 @@
       <c r="G6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="112"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="118"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
       <c r="F7" s="24">
         <v>1</v>
       </c>
-      <c r="G7" s="114" t="s">
+      <c r="G7" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91" t="s">
+      <c r="H7" s="68"/>
+      <c r="I7" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="J7" s="91"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="12" t="s">
         <v>76</v>
       </c>
@@ -4251,20 +4784,20 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="24">
         <v>2</v>
       </c>
-      <c r="G8" s="114" t="s">
+      <c r="G8" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
       <c r="K8" s="12" t="s">
         <v>119</v>
       </c>
@@ -4273,109 +4806,109 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
       <c r="F9" s="24">
         <v>3</v>
       </c>
-      <c r="G9" s="114" t="s">
+      <c r="G9" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="91" t="s">
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="L9" s="54" t="s">
+      <c r="L9" s="45" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="91">
+      <c r="A10" s="104"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="68">
         <v>4</v>
       </c>
-      <c r="G10" s="105" t="s">
+      <c r="G10" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="54" t="s">
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="45" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="121" t="s">
+      <c r="A11" s="104"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="55" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="119" t="s">
+      <c r="A12" s="104"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="114" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="96"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="120"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="115"/>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="25">
         <v>4</v>
       </c>
-      <c r="G14" s="113" t="s">
+      <c r="G14" s="51" t="s">
         <v>111</v>
       </c>
       <c r="H14" s="28"/>
@@ -4391,11 +4924,11 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
       <c r="F15" s="25">
         <v>5</v>
       </c>
@@ -4413,118 +4946,118 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="95"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="91">
+      <c r="A16" s="104"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="68">
         <v>6</v>
       </c>
-      <c r="G16" s="105" t="s">
+      <c r="G16" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
       <c r="K16" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="L16" s="54" t="s">
+      <c r="L16" s="45" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="95"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="113" t="s">
+      <c r="A17" s="104"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="L17" s="54" t="s">
+      <c r="L17" s="45" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="95"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="113" t="s">
+      <c r="A18" s="104"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="L18" s="54" t="s">
+      <c r="L18" s="45" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="95"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="91" t="s">
+      <c r="A19" s="104"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="L19" s="122" t="s">
+      <c r="L19" s="112" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="123"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="113"/>
     </row>
     <row r="21" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="105" t="s">
+      <c r="B21" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="105" t="s">
+      <c r="C21" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="25">
         <v>4</v>
       </c>
-      <c r="G21" s="113" t="s">
+      <c r="G21" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H21" s="91"/>
-      <c r="I21" s="105" t="s">
+      <c r="H21" s="68"/>
+      <c r="I21" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="91"/>
+      <c r="J21" s="68"/>
       <c r="K21" s="28" t="s">
         <v>112</v>
       </c>
@@ -4533,20 +5066,20 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="95"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
       <c r="F22" s="25">
         <v>5</v>
       </c>
       <c r="G22" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="92"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="92"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="70"/>
       <c r="K22" s="28" t="s">
         <v>119</v>
       </c>
@@ -4555,112 +5088,112 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="95"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
+      <c r="A23" s="104"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
       <c r="F23" s="25">
         <v>6</v>
       </c>
-      <c r="G23" s="113" t="s">
+      <c r="G23" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="H23" s="92"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="92"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="70"/>
       <c r="K23" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="L23" s="54" t="s">
+      <c r="L23" s="45" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="95"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="91">
+      <c r="A24" s="104"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="68">
         <v>7</v>
       </c>
-      <c r="G24" s="105" t="s">
+      <c r="G24" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="H24" s="92"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="113" t="s">
+      <c r="H24" s="70"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="L24" s="54" t="s">
+      <c r="L24" s="45" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="113" t="s">
+      <c r="A25" s="104"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="L25" s="54" t="s">
+      <c r="L25" s="45" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="96"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="93"/>
+      <c r="A26" s="106"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="71"/>
       <c r="K26" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="L26" s="116" t="s">
+      <c r="L26" s="53" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="97" t="s">
+      <c r="A27" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="105" t="s">
+      <c r="B27" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="105" t="s">
+      <c r="C27" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="91" t="s">
+      <c r="D27" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="105" t="s">
+      <c r="E27" s="101" t="s">
         <v>123</v>
       </c>
       <c r="F27" s="25">
         <v>4</v>
       </c>
-      <c r="G27" s="113" t="s">
+      <c r="G27" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H27" s="91"/>
-      <c r="I27" s="105" t="s">
+      <c r="H27" s="68"/>
+      <c r="I27" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="J27" s="105"/>
+      <c r="J27" s="101"/>
       <c r="K27" s="28" t="s">
         <v>112</v>
       </c>
@@ -4669,20 +5202,20 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="97"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="105"/>
+      <c r="A28" s="99"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="101"/>
       <c r="F28" s="25">
         <v>5</v>
       </c>
       <c r="G28" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="H28" s="92"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="100"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
       <c r="K28" s="28" t="s">
         <v>119</v>
       </c>
@@ -4691,216 +5224,216 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="97"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="91">
+      <c r="A29" s="99"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="68">
         <v>6</v>
       </c>
-      <c r="G29" s="105" t="s">
+      <c r="G29" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="H29" s="92"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="100"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
       <c r="K29" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="L29" s="54" t="s">
+      <c r="L29" s="45" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="97" t="s">
+      <c r="A30" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="113" t="s">
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="L30" s="54" t="s">
+      <c r="L30" s="45" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="97"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="113" t="s">
+      <c r="A31" s="99"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="L31" s="54" t="s">
+      <c r="L31" s="45" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="97"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="118"/>
+      <c r="A32" s="99"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
       <c r="K32" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="L32" s="116" t="s">
+      <c r="L32" s="53" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="97" t="s">
+      <c r="A33" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="105" t="s">
+      <c r="B33" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="105" t="s">
+      <c r="C33" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
       <c r="F33" s="25">
         <v>4</v>
       </c>
-      <c r="G33" s="113" t="s">
+      <c r="G33" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91" t="s">
+      <c r="H33" s="68"/>
+      <c r="I33" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="J33" s="91"/>
+      <c r="J33" s="68"/>
       <c r="K33" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="L33" s="115" t="s">
+      <c r="L33" s="116" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="97"/>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91">
+      <c r="A34" s="99"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68">
         <v>6</v>
       </c>
-      <c r="G34" s="105" t="s">
+      <c r="G34" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
       <c r="K34" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="L34" s="115"/>
+      <c r="L34" s="116"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="97"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="91"/>
+      <c r="A35" s="99"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
       <c r="K35" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="L35" s="115"/>
+      <c r="L35" s="116"/>
     </row>
     <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="97"/>
-      <c r="B36" s="105"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="113" t="s">
+      <c r="A36" s="99"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="L36" s="115"/>
+      <c r="L36" s="116"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="97"/>
-      <c r="B37" s="105"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="113" t="s">
+      <c r="A37" s="99"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="L37" s="115"/>
+      <c r="L37" s="116"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="97"/>
-      <c r="B38" s="105"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="118"/>
-      <c r="H38" s="91"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="91"/>
+      <c r="A38" s="99"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
       <c r="K38" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="L38" s="115"/>
+      <c r="L38" s="116"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="97" t="s">
+      <c r="A39" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="91" t="s">
+      <c r="B39" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="105" t="s">
+      <c r="C39" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="91"/>
-      <c r="I39" s="91" t="s">
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="J39" s="91"/>
+      <c r="J39" s="68"/>
       <c r="K39" s="28" t="s">
         <v>112</v>
       </c>
@@ -4909,16 +5442,16 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="97"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="92"/>
+      <c r="A40" s="99"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="70"/>
       <c r="K40" s="28" t="s">
         <v>119</v>
       </c>
@@ -4927,116 +5460,116 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="97"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="92"/>
+      <c r="A41" s="99"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="70"/>
       <c r="K41" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="L41" s="54" t="s">
+      <c r="L41" s="45" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="97"/>
-      <c r="B42" s="91"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="92"/>
-      <c r="K42" s="113" t="s">
+      <c r="A42" s="99"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="L42" s="54" t="s">
+      <c r="L42" s="45" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="97" t="s">
+      <c r="A43" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="91"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="91"/>
-      <c r="I43" s="91"/>
-      <c r="J43" s="92"/>
-      <c r="K43" s="113" t="s">
+      <c r="B43" s="68"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="L43" s="54" t="s">
+      <c r="L43" s="45" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="97"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="91"/>
-      <c r="I44" s="91"/>
-      <c r="J44" s="92"/>
+      <c r="A44" s="99"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="70"/>
       <c r="K44" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="L44" s="116" t="s">
+      <c r="L44" s="53" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="97"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="91"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="91"/>
-      <c r="I45" s="91"/>
-      <c r="J45" s="93"/>
+      <c r="A45" s="99"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="71"/>
       <c r="K45" s="28"/>
       <c r="L45" s="31"/>
     </row>
     <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="97" t="s">
+      <c r="A46" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="91" t="s">
+      <c r="B46" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="105" t="s">
+      <c r="C46" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
       <c r="F46" s="25">
         <v>4</v>
       </c>
-      <c r="G46" s="113" t="s">
+      <c r="G46" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H46" s="91"/>
-      <c r="I46" s="91" t="s">
+      <c r="H46" s="68"/>
+      <c r="I46" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="J46" s="105" t="s">
+      <c r="J46" s="101" t="s">
         <v>144</v>
       </c>
       <c r="K46" s="28" t="s">
@@ -5047,20 +5580,20 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="95"/>
-      <c r="B47" s="92"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
+      <c r="A47" s="104"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
       <c r="F47" s="28">
         <v>6</v>
       </c>
-      <c r="G47" s="113" t="s">
+      <c r="G47" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="H47" s="92"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="100"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="102"/>
       <c r="K47" s="28" t="s">
         <v>119</v>
       </c>
@@ -5069,112 +5602,112 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="95"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
+      <c r="A48" s="104"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
       <c r="F48" s="28">
         <v>8</v>
       </c>
-      <c r="G48" s="113" t="s">
+      <c r="G48" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="H48" s="92"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="100"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="102"/>
       <c r="K48" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="L48" s="54" t="s">
+      <c r="L48" s="45" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="95"/>
-      <c r="B49" s="92"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="91">
+      <c r="A49" s="104"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="68">
         <v>9</v>
       </c>
-      <c r="G49" s="105" t="s">
+      <c r="G49" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="H49" s="92"/>
-      <c r="I49" s="92"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="113" t="s">
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="102"/>
+      <c r="K49" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="L49" s="54" t="s">
+      <c r="L49" s="45" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="95"/>
-      <c r="B50" s="92"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="92"/>
-      <c r="I50" s="92"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="113" t="s">
+      <c r="A50" s="104"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="L50" s="54" t="s">
+      <c r="L50" s="45" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="96"/>
-      <c r="B51" s="93"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="118"/>
-      <c r="H51" s="93"/>
-      <c r="I51" s="93"/>
-      <c r="J51" s="118"/>
+      <c r="A51" s="106"/>
+      <c r="B51" s="71"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="111"/>
       <c r="K51" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="L51" s="116" t="s">
+      <c r="L51" s="53" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="97" t="s">
+      <c r="A52" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="105" t="s">
+      <c r="B52" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="105" t="s">
+      <c r="C52" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="D52" s="89" t="s">
+      <c r="D52" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="E52" s="99" t="s">
+      <c r="E52" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="F52" s="91">
+      <c r="F52" s="68">
         <v>10</v>
       </c>
-      <c r="G52" s="105" t="s">
+      <c r="G52" s="101" t="s">
         <v>138</v>
       </c>
-      <c r="H52" s="91"/>
-      <c r="I52" s="105" t="s">
+      <c r="H52" s="68"/>
+      <c r="I52" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="J52" s="91"/>
+      <c r="J52" s="68"/>
       <c r="K52" s="28" t="s">
         <v>112</v>
       </c>
@@ -5183,16 +5716,16 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="95"/>
-      <c r="B53" s="100"/>
-      <c r="C53" s="100"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="100"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="100"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="92"/>
+      <c r="A53" s="104"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="70"/>
       <c r="K53" s="28" t="s">
         <v>119</v>
       </c>
@@ -5201,74 +5734,74 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="95"/>
-      <c r="B54" s="100"/>
-      <c r="C54" s="100"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="100"/>
-      <c r="F54" s="92"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="92"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="92"/>
+      <c r="A54" s="104"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="102"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="102"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="102"/>
+      <c r="J54" s="70"/>
       <c r="K54" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="L54" s="54" t="s">
+      <c r="L54" s="45" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="95"/>
-      <c r="B55" s="100"/>
-      <c r="C55" s="100"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="100"/>
-      <c r="F55" s="92"/>
-      <c r="G55" s="100"/>
-      <c r="H55" s="92"/>
-      <c r="I55" s="100"/>
-      <c r="J55" s="92"/>
-      <c r="K55" s="113" t="s">
+      <c r="A55" s="104"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="102"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="102"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="102"/>
+      <c r="J55" s="70"/>
+      <c r="K55" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="L55" s="54" t="s">
+      <c r="L55" s="45" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="95"/>
-      <c r="B56" s="100"/>
-      <c r="C56" s="100"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="100"/>
-      <c r="F56" s="92"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="92"/>
-      <c r="I56" s="100"/>
-      <c r="J56" s="92"/>
-      <c r="K56" s="113" t="s">
+      <c r="A56" s="104"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="102"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="102"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="102"/>
+      <c r="J56" s="70"/>
+      <c r="K56" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="L56" s="54" t="s">
+      <c r="L56" s="45" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="98"/>
-      <c r="B57" s="101"/>
-      <c r="C57" s="101"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="101"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="101"/>
-      <c r="J57" s="90"/>
+      <c r="A57" s="105"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="103"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="103"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="103"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="103"/>
+      <c r="J57" s="69"/>
       <c r="K57" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="L57" s="117" t="s">
+      <c r="L57" s="54" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5393,63 +5926,27 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="F52:F57"/>
-    <mergeCell ref="G52:G57"/>
-    <mergeCell ref="H52:H57"/>
-    <mergeCell ref="I52:I57"/>
-    <mergeCell ref="J52:J57"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="E52:E57"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="J39:J45"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="E46:E51"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="H46:H51"/>
-    <mergeCell ref="I46:I51"/>
-    <mergeCell ref="J46:J51"/>
-    <mergeCell ref="H21:H26"/>
-    <mergeCell ref="I21:I26"/>
-    <mergeCell ref="J21:J26"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="H27:H32"/>
-    <mergeCell ref="I27:I32"/>
-    <mergeCell ref="J27:J32"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="I16:I20"/>
-    <mergeCell ref="J16:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="H7:H13"/>
-    <mergeCell ref="I7:I13"/>
-    <mergeCell ref="J7:J13"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="F39:F45"/>
-    <mergeCell ref="G39:G45"/>
-    <mergeCell ref="H39:H45"/>
-    <mergeCell ref="I39:I45"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="C39:C45"/>
-    <mergeCell ref="D39:D45"/>
-    <mergeCell ref="E39:E45"/>
-    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="E7:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="C33:C38"/>
     <mergeCell ref="D33:D38"/>
@@ -5474,28 +5971,64 @@
     <mergeCell ref="D14:D20"/>
     <mergeCell ref="E14:E20"/>
     <mergeCell ref="F16:F20"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="I16:I20"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="H7:H13"/>
+    <mergeCell ref="I7:I13"/>
+    <mergeCell ref="J7:J13"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="H21:H26"/>
+    <mergeCell ref="I21:I26"/>
+    <mergeCell ref="J21:J26"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="H27:H32"/>
+    <mergeCell ref="I27:I32"/>
+    <mergeCell ref="J27:J32"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="E21:E26"/>
     <mergeCell ref="F24:F26"/>
-    <mergeCell ref="E7:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="J39:J45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="E46:E51"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="H46:H51"/>
+    <mergeCell ref="I46:I51"/>
+    <mergeCell ref="J46:J51"/>
+    <mergeCell ref="F39:F45"/>
+    <mergeCell ref="G39:G45"/>
+    <mergeCell ref="H39:H45"/>
+    <mergeCell ref="I39:I45"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="C39:C45"/>
+    <mergeCell ref="D39:D45"/>
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="F52:F57"/>
+    <mergeCell ref="G52:G57"/>
+    <mergeCell ref="H52:H57"/>
+    <mergeCell ref="I52:I57"/>
+    <mergeCell ref="J52:J57"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="E52:E57"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="C52:C57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{D411DE6F-B6AA-4877-8454-AEC23893A3C7}"/>
@@ -5506,7 +6039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862E8F03-39B2-4444-93D1-59147E438295}">
   <dimension ref="A1:M38"/>
   <sheetViews>
@@ -5537,78 +6070,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="71" t="str">
+      <c r="B2" s="89" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Tarea</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="72"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="73" t="str">
+      <c r="B3" s="91" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Este objeto de dominio contiene la información de una tarea que esta dentro de una listaTarea</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="92"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="75" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="66" t="s">
+      <c r="E4" s="93"/>
+      <c r="F4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="66"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
@@ -5618,48 +6151,48 @@
       <c r="J4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="111" t="s">
+      <c r="K4" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="112" t="s">
+      <c r="L4" s="118" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="64" t="s">
+      <c r="E5" s="93"/>
+      <c r="F5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="67" t="s">
+      <c r="G5" s="82"/>
+      <c r="H5" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="110" t="s">
+      <c r="I5" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="111"/>
-      <c r="L5" s="112"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="118"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
@@ -5672,35 +6205,35 @@
       <c r="G6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="112"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="118"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91">
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68">
         <v>1</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91" t="s">
+      <c r="H7" s="68"/>
+      <c r="I7" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="J7" s="91"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="12" t="s">
         <v>76</v>
       </c>
@@ -5709,126 +6242,126 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
       <c r="K8" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="115" t="s">
+      <c r="L8" s="116" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
       <c r="K9" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="L9" s="104"/>
+      <c r="L9" s="110"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89">
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73">
         <v>2</v>
       </c>
-      <c r="G10" s="99" t="s">
+      <c r="G10" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89" t="s">
+      <c r="H10" s="73"/>
+      <c r="I10" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="J10" s="89"/>
-      <c r="K10" s="124" t="s">
+      <c r="J10" s="73"/>
+      <c r="K10" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="L10" s="125" t="s">
+      <c r="L10" s="57" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
       <c r="K11" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="L11" s="115" t="s">
+      <c r="L11" s="116" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="98"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
       <c r="K12" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="L12" s="104"/>
+      <c r="L12" s="110"/>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="107" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89" t="s">
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="J13" s="89"/>
-      <c r="K13" s="124" t="s">
+      <c r="J13" s="73"/>
+      <c r="K13" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="L13" s="127" t="s">
+      <c r="L13" s="59" t="s">
         <v>150</v>
       </c>
     </row>
@@ -5836,15 +6369,15 @@
       <c r="A14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
       <c r="K14" s="14" t="s">
         <v>143</v>
       </c>
@@ -5889,20 +6422,23 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="H7:H9"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
@@ -5919,7 +6455,304 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{837A2162-633C-4BF6-9BC3-5394748CBF54}"/>
+    <hyperlink ref="A1:M1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{A4EDDCD7-E57C-46F5-904C-20658EC2E696}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719DBB0E-1DA8-49C6-99DC-58478B6FA4D2}">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7:L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38" style="1" customWidth="1"/>
+    <col min="12" max="12" width="46.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="89" t="str">
+        <f>'Listado Objetos de Dominio'!$A$7</f>
+        <v>MetricaProyecto</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="91" t="str">
+        <f>'Listado Objetos de Dominio'!$B$7</f>
+        <v>Objeto de dominio que contiene los datos necesarios para realizar el analisis estadistico a proyecto</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="80"/>
+      <c r="D4" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="93"/>
+      <c r="F4" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="84"/>
+      <c r="H4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="93"/>
+      <c r="F5" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="82"/>
+      <c r="H5" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="117"/>
+      <c r="L5" s="118"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="85"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="118"/>
+    </row>
+    <row r="7" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="101" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="68">
+        <v>1</v>
+      </c>
+      <c r="G7" s="101" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="68"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+    </row>
+    <row r="9" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="8:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="8:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H33"/>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H34"/>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H35"/>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H36"/>
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="J38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
@@ -5938,8 +6771,8 @@
     <mergeCell ref="B5:B6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{837A2162-633C-4BF6-9BC3-5394748CBF54}"/>
-    <hyperlink ref="A1:M1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{A4EDDCD7-E57C-46F5-904C-20658EC2E696}"/>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BFCA4477-4C91-4098-BC41-5EA1FA1962BD}"/>
+    <hyperlink ref="A1:M1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{ECA0348E-CDEF-405F-BACE-7925B26E8375}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5947,6 +6780,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0DE5568C0AE848B2F225150E15E78E" ma:contentTypeVersion="3" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="643d399a24376eab49db33c80db032ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="915fd109-ae29-4648-8de1-7f064f1d0fe5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2a54904d818499acdea7742e4a0622bc" ns2:_="">
     <xsd:import namespace="915fd109-ae29-4648-8de1-7f064f1d0fe5"/>
@@ -6084,35 +6932,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D482EFAC-9BEA-400D-AF6E-6B063F3CF270}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="915fd109-ae29-4648-8de1-7f064f1d0fe5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6135,9 +6958,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D482EFAC-9BEA-400D-AF6E-6B063F3CF270}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="915fd109-ae29-4648-8de1-7f064f1d0fe5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
